--- a/docs/odk_template_form/form_odk_flore_prio.xlsx
+++ b/docs/odk_template_form/form_odk_flore_prio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="137">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -429,7 +429,10 @@
     <t xml:space="preserve">allow_choice_duplicates</t>
   </si>
   <si>
-    <t xml:space="preserve">form_odk_flore_prio</t>
+    <t xml:space="preserve">Bilan stationel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">form_odk_bilan_stationnel</t>
   </si>
 </sst>
 </file>
@@ -706,11 +709,11 @@
   </sheetPr>
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="47.24"/>
@@ -1329,7 +1332,7 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="8" t="s">
@@ -1404,11 +1407,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.08"/>
@@ -1438,7 +1441,7 @@
         <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="3" t="n">
         <v>1</v>
